--- a/20160411 - 007/running_logs/logs.xlsx
+++ b/20160411 - 007/running_logs/logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="61">
   <si>
     <t>Time</t>
   </si>
@@ -182,6 +182,21 @@
   </si>
   <si>
     <t>20160414_124258</t>
+  </si>
+  <si>
+    <t>20160415_171314</t>
+  </si>
+  <si>
+    <t>space after punctuation, remove multiple spaces, remove break line, trim "space" and ",", convert unicode to ascii, convert to lower</t>
+  </si>
+  <si>
+    <t>3 layers: [100-Sigmoid, 3-Sigmoid, 3-Softmax], learning_rate: 0.01, learning_rule: adagrad, n_iterator: 2000</t>
+  </si>
+  <si>
+    <t>20160415_174700</t>
+  </si>
+  <si>
+    <t>20160415_182235</t>
   </si>
 </sst>
 </file>
@@ -513,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1284,6 +1299,102 @@
         <v>0.404761904761905</v>
       </c>
     </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25">
+        <v>2025.436</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25">
+        <v>0.996666666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25">
+        <v>0.25609756097561</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26">
+        <v>2135.522</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26">
+        <v>0.998</v>
+      </c>
+      <c r="H26">
+        <v>0.95049504950495</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26">
+        <v>0.317647058823529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27">
+        <v>1930.165</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27">
+        <v>0.998666666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27">
+        <v>0.548780487804878</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
